--- a/data/raw/INFANL2-2020-2021 EXAM first chance.xlsx
+++ b/data/raw/INFANL2-2020-2021 EXAM first chance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejdobrkovic/extra/courses/2223datascience/(X3) black/(02) ANL sources/anonymized/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JiaQiang\Desktop\Project DS Analysis\DsAnalysisProject\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABC3013-CE29-554F-99C1-9F4402E0419D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE51A62-B555-460A-8575-69A1FF1FD296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="860" windowWidth="27640" windowHeight="15820" xr2:uid="{E58D1C62-BDBB-C04F-BBEA-90D92EE7DD21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E58D1C62-BDBB-C04F-BBEA-90D92EE7DD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9895" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9895" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Avg 1st year</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1405,22 +1408,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="8.83203125" style="1"/>
-    <col min="24" max="24" width="2.6640625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="23" width="8.875" style="1"/>
+    <col min="24" max="24" width="2.625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1445,7 +1448,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="F3" s="6" t="s">
         <v>26</v>
@@ -1474,11 +1477,11 @@
       </c>
       <c r="X3" s="11"/>
     </row>
-    <row r="4" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="X4" s="11"/>
     </row>
-    <row r="5" spans="2:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="12" t="s">
         <v>18</v>
@@ -1545,7 +1548,7 @@
       </c>
       <c r="X5" s="11"/>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="15" t="s">
         <v>29</v>
@@ -1632,7 +1635,7 @@
       </c>
       <c r="X6" s="11"/>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="15" t="s">
         <v>30</v>
@@ -1719,7 +1722,7 @@
       </c>
       <c r="X7" s="11"/>
     </row>
-    <row r="8" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="18" t="s">
         <v>31</v>
@@ -1806,11 +1809,11 @@
       </c>
       <c r="X8" s="11"/>
     </row>
-    <row r="9" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="X9" s="11"/>
     </row>
-    <row r="10" spans="2:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="12" t="s">
         <v>18</v>
@@ -1877,7 +1880,7 @@
       </c>
       <c r="X10" s="11"/>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="15" t="s">
         <v>29</v>
@@ -1964,7 +1967,7 @@
       </c>
       <c r="X11" s="11"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="15" t="s">
         <v>30</v>
@@ -2051,7 +2054,7 @@
       </c>
       <c r="X12" s="11"/>
     </row>
-    <row r="13" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="18" t="s">
         <v>31</v>
@@ -2138,15 +2141,15 @@
       </c>
       <c r="X13" s="11"/>
     </row>
-    <row r="14" spans="2:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="X14" s="11"/>
     </row>
-    <row r="15" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="X15" s="11"/>
     </row>
-    <row r="16" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="J16" s="6" t="s">
         <v>32</v>
@@ -2168,7 +2171,7 @@
       </c>
       <c r="X16" s="11"/>
     </row>
-    <row r="17" spans="2:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -2193,7 +2196,7 @@
       <c r="W17" s="23"/>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="2:24" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2204,18 +2207,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8B40D7-8ED7-1743-9BF0-AB163FBF81AB}">
   <dimension ref="A1:AT232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="43" width="4.1640625" customWidth="1"/>
+    <col min="4" max="43" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2353,7 +2354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2461222</v>
       </c>
@@ -2490,7 +2491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2460524</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2400531</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2374713</v>
       </c>
@@ -2901,7 +2902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2467462</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2460194</v>
       </c>
@@ -3175,7 +3176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2476786</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2473190</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2471245</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2459587</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2463984</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2475007</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2470058</v>
       </c>
@@ -4134,7 +4135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2448032</v>
       </c>
@@ -4271,7 +4272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2468204</v>
       </c>
@@ -4408,7 +4409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2472296</v>
       </c>
@@ -4545,7 +4546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2472834</v>
       </c>
@@ -4682,7 +4683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2459147</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2461567</v>
       </c>
@@ -4956,7 +4957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2462740</v>
       </c>
@@ -5093,7 +5094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2486018</v>
       </c>
@@ -5230,7 +5231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2488610</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2473892</v>
       </c>
@@ -5504,7 +5505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2459974</v>
       </c>
@@ -5641,7 +5642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2471982</v>
       </c>
@@ -5778,7 +5779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2384049</v>
       </c>
@@ -5915,7 +5916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2407419</v>
       </c>
@@ -6052,7 +6053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2467819</v>
       </c>
@@ -6189,7 +6190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2469670</v>
       </c>
@@ -6326,7 +6327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2447571</v>
       </c>
@@ -6463,7 +6464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2472458</v>
       </c>
@@ -6600,7 +6601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2488322</v>
       </c>
@@ -6737,7 +6738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2470394</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2477562</v>
       </c>
@@ -7011,7 +7012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2575386</v>
       </c>
@@ -7148,7 +7149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2460275</v>
       </c>
@@ -7285,7 +7286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2479981</v>
       </c>
@@ -7422,7 +7423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2459364</v>
       </c>
@@ -7559,7 +7560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2459206</v>
       </c>
@@ -7696,7 +7697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2477415</v>
       </c>
@@ -7833,7 +7834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2383071</v>
       </c>
@@ -7970,7 +7971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2367347</v>
       </c>
@@ -8107,7 +8108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2370070</v>
       </c>
@@ -8244,7 +8245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2447854</v>
       </c>
@@ -8381,7 +8382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2471517</v>
       </c>
@@ -8518,7 +8519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2460178</v>
       </c>
@@ -8655,7 +8656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2449284</v>
       </c>
@@ -8792,7 +8793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2471197</v>
       </c>
@@ -8929,7 +8930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2473919</v>
       </c>
@@ -9066,7 +9067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2463987</v>
       </c>
@@ -9203,7 +9204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2470724</v>
       </c>
@@ -9340,7 +9341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2482072</v>
       </c>
@@ -9477,7 +9478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2468534</v>
       </c>
@@ -9614,7 +9615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2483548</v>
       </c>
@@ -9751,7 +9752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2422069</v>
       </c>
@@ -9888,7 +9889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2470423</v>
       </c>
@@ -10025,7 +10026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2461409</v>
       </c>
@@ -10162,7 +10163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2460979</v>
       </c>
@@ -10299,7 +10300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2463162</v>
       </c>
@@ -10436,7 +10437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2478675</v>
       </c>
@@ -10573,7 +10574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2486689</v>
       </c>
@@ -10710,7 +10711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2369362</v>
       </c>
@@ -10847,7 +10848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2482159</v>
       </c>
@@ -10984,7 +10985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2369932</v>
       </c>
@@ -11121,7 +11122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2397400</v>
       </c>
@@ -11258,7 +11259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2469868</v>
       </c>
@@ -11395,7 +11396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2397335</v>
       </c>
@@ -11532,7 +11533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2471046</v>
       </c>
@@ -11669,7 +11670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2448788</v>
       </c>
@@ -11806,7 +11807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2604047</v>
       </c>
@@ -11943,7 +11944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2461897</v>
       </c>
@@ -12080,7 +12081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2469215</v>
       </c>
@@ -12217,7 +12218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2366013</v>
       </c>
@@ -12354,7 +12355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2423048</v>
       </c>
@@ -12491,7 +12492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2474652</v>
       </c>
@@ -12628,7 +12629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2363900</v>
       </c>
@@ -12765,7 +12766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2460816</v>
       </c>
@@ -12902,7 +12903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2383406</v>
       </c>
@@ -13039,7 +13040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2465376</v>
       </c>
@@ -13176,7 +13177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2480713</v>
       </c>
@@ -13313,7 +13314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2468164</v>
       </c>
@@ -13450,7 +13451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2468759</v>
       </c>
@@ -13587,7 +13588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2461288</v>
       </c>
@@ -13724,7 +13725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2474444</v>
       </c>
@@ -13861,7 +13862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2375249</v>
       </c>
@@ -13998,7 +13999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2475836</v>
       </c>
@@ -14135,7 +14136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2474960</v>
       </c>
@@ -14272,7 +14273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2463394</v>
       </c>
@@ -14409,7 +14410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2460222</v>
       </c>
@@ -14546,7 +14547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2466637</v>
       </c>
@@ -14683,7 +14684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2480817</v>
       </c>
@@ -14820,7 +14821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2467558</v>
       </c>
@@ -14957,7 +14958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2447323</v>
       </c>
@@ -15094,7 +15095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2448578</v>
       </c>
@@ -15231,7 +15232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2380228</v>
       </c>
@@ -15368,7 +15369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2462258</v>
       </c>
@@ -15505,7 +15506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2419913</v>
       </c>
@@ -15642,7 +15643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2462052</v>
       </c>
@@ -15779,7 +15780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2467768</v>
       </c>
@@ -15916,7 +15917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2466089</v>
       </c>
@@ -16053,7 +16054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2484562</v>
       </c>
@@ -16190,7 +16191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2395330</v>
       </c>
@@ -16327,7 +16328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2360479</v>
       </c>
@@ -16464,7 +16465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2465220</v>
       </c>
@@ -16601,7 +16602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2471988</v>
       </c>
@@ -16738,7 +16739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2463439</v>
       </c>
@@ -16875,7 +16876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2470025</v>
       </c>
@@ -17012,7 +17013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2460367</v>
       </c>
@@ -17149,7 +17150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2467283</v>
       </c>
@@ -17286,7 +17287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2462249</v>
       </c>
@@ -17423,7 +17424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2487380</v>
       </c>
@@ -17560,7 +17561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2569490</v>
       </c>
@@ -17697,7 +17698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2472842</v>
       </c>
@@ -17834,7 +17835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2460095</v>
       </c>
@@ -17971,7 +17972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2404288</v>
       </c>
@@ -18108,7 +18109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2489791</v>
       </c>
@@ -18245,7 +18246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2445750</v>
       </c>
@@ -18382,7 +18383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2365639</v>
       </c>
@@ -18519,7 +18520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2482941</v>
       </c>
@@ -18656,7 +18657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2473029</v>
       </c>
@@ -18793,7 +18794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2369863</v>
       </c>
@@ -18930,7 +18931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2462744</v>
       </c>
@@ -19067,7 +19068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2486181</v>
       </c>
@@ -19204,7 +19205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2488564</v>
       </c>
@@ -19341,7 +19342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2363416</v>
       </c>
@@ -19478,7 +19479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2460236</v>
       </c>
@@ -19615,7 +19616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2460467</v>
       </c>
@@ -19752,7 +19753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2467025</v>
       </c>
@@ -19889,7 +19890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2469186</v>
       </c>
@@ -20026,7 +20027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2478235</v>
       </c>
@@ -20163,7 +20164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2384110</v>
       </c>
@@ -20300,7 +20301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2441576</v>
       </c>
@@ -20437,7 +20438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2470614</v>
       </c>
@@ -20574,7 +20575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2446965</v>
       </c>
@@ -20711,7 +20712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2471349</v>
       </c>
@@ -20848,7 +20849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2397371</v>
       </c>
@@ -20985,7 +20986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2461348</v>
       </c>
@@ -21122,7 +21123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2446469</v>
       </c>
@@ -21259,7 +21260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2471125</v>
       </c>
@@ -21396,7 +21397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2469091</v>
       </c>
@@ -21533,7 +21534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2470786</v>
       </c>
@@ -21670,7 +21671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2459209</v>
       </c>
@@ -21807,7 +21808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2448525</v>
       </c>
@@ -21944,7 +21945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2601972</v>
       </c>
@@ -22081,7 +22082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2461221</v>
       </c>
@@ -22218,7 +22219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2363458</v>
       </c>
@@ -22355,7 +22356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2458180</v>
       </c>
@@ -22492,7 +22493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2466786</v>
       </c>
@@ -22629,7 +22630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2470035</v>
       </c>
@@ -22766,7 +22767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A151" s="25">
         <v>2370610</v>
       </c>
@@ -22903,7 +22904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2459737</v>
       </c>
@@ -23040,7 +23041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2447003</v>
       </c>
@@ -23177,7 +23178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2449280</v>
       </c>
@@ -23314,7 +23315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2471383</v>
       </c>
@@ -23451,7 +23452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2466479</v>
       </c>
@@ -23588,7 +23589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2473980</v>
       </c>
@@ -23725,7 +23726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2466477</v>
       </c>
@@ -23862,7 +23863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2462671</v>
       </c>
@@ -23999,7 +24000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2489284</v>
       </c>
@@ -24136,7 +24137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2477126</v>
       </c>
@@ -24273,7 +24274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2473590</v>
       </c>
@@ -24410,7 +24411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2448095</v>
       </c>
@@ -24547,7 +24548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2468230</v>
       </c>
@@ -24684,7 +24685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2391565</v>
       </c>
@@ -24821,7 +24822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2474484</v>
       </c>
@@ -24958,7 +24959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2389243</v>
       </c>
@@ -25095,7 +25096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2472539</v>
       </c>
@@ -25232,7 +25233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2441251</v>
       </c>
@@ -25369,7 +25370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2471844</v>
       </c>
@@ -25506,7 +25507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2477408</v>
       </c>
@@ -25643,7 +25644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2448118</v>
       </c>
@@ -25780,7 +25781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2474447</v>
       </c>
@@ -25917,7 +25918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2468369</v>
       </c>
@@ -26054,7 +26055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2470138</v>
       </c>
@@ -26191,7 +26192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2457637</v>
       </c>
@@ -26328,7 +26329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2461833</v>
       </c>
@@ -26465,7 +26466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2472752</v>
       </c>
@@ -26602,7 +26603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2473489</v>
       </c>
@@ -26739,7 +26740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2446346</v>
       </c>
@@ -26876,7 +26877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2473484</v>
       </c>
@@ -27013,7 +27014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2446057</v>
       </c>
@@ -27150,7 +27151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2466569</v>
       </c>
@@ -27287,7 +27288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2461323</v>
       </c>
@@ -27424,7 +27425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2448530</v>
       </c>
@@ -27561,7 +27562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2389893</v>
       </c>
@@ -27698,7 +27699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2465549</v>
       </c>
@@ -27835,7 +27836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2478047</v>
       </c>
@@ -27972,7 +27973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2446915</v>
       </c>
@@ -28109,7 +28110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2476102</v>
       </c>
@@ -28246,7 +28247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2472033</v>
       </c>
@@ -28383,7 +28384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2481539</v>
       </c>
@@ -28520,7 +28521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2479407</v>
       </c>
@@ -28657,7 +28658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2464769</v>
       </c>
@@ -28794,7 +28795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2471344</v>
       </c>
@@ -28931,7 +28932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2381943</v>
       </c>
@@ -29068,7 +29069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2471085</v>
       </c>
@@ -29205,7 +29206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2460930</v>
       </c>
@@ -29342,7 +29343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2369630</v>
       </c>
@@ -29479,7 +29480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2464574</v>
       </c>
@@ -29616,7 +29617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2470406</v>
       </c>
@@ -29753,7 +29754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2471509</v>
       </c>
@@ -29890,7 +29891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2445567</v>
       </c>
@@ -30027,7 +30028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="204" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2460825</v>
       </c>
@@ -30164,7 +30165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2448317</v>
       </c>
@@ -30301,7 +30302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2445979</v>
       </c>
@@ -30438,7 +30439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2387856</v>
       </c>
@@ -30575,7 +30576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2442433</v>
       </c>
@@ -30712,7 +30713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2378940</v>
       </c>
@@ -30849,7 +30850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2488077</v>
       </c>
@@ -30986,7 +30987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A211" s="25">
         <v>2583588</v>
       </c>
@@ -31123,7 +31124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2391946</v>
       </c>
@@ -31260,7 +31261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2457955</v>
       </c>
@@ -31397,7 +31398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="214" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2470432</v>
       </c>
@@ -31534,7 +31535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2368055</v>
       </c>
@@ -31671,7 +31672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2460514</v>
       </c>
@@ -31808,7 +31809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2461100</v>
       </c>
@@ -31945,7 +31946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2461838</v>
       </c>
@@ -32082,7 +32083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2483846</v>
       </c>
@@ -32219,7 +32220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2468953</v>
       </c>
@@ -32356,7 +32357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2449040</v>
       </c>
@@ -32493,7 +32494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2486240</v>
       </c>
@@ -32630,7 +32631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2556433</v>
       </c>
@@ -32767,7 +32768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2369028</v>
       </c>
@@ -32904,7 +32905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2485380</v>
       </c>
@@ -33041,7 +33042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2473616</v>
       </c>
@@ -33178,7 +33179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2463436</v>
       </c>
@@ -33315,7 +33316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2466812</v>
       </c>
@@ -33452,8 +33453,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:46" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="1:46" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="230" spans="1:46" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C230" s="42" t="s">
         <v>35</v>
       </c>
@@ -33624,7 +33625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C231" s="47" t="s">
         <v>36</v>
       </c>
@@ -33797,7 +33798,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="232" spans="1:46" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C232" s="52"/>
       <c r="D232" s="53">
         <v>1</v>
@@ -33994,12 +33995,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="43" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="43" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -34130,7 +34131,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2461222</v>
       </c>
@@ -34258,7 +34259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2460524</v>
       </c>
@@ -34386,7 +34387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2400531</v>
       </c>
@@ -34514,7 +34515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2374713</v>
       </c>
@@ -34642,7 +34643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2467462</v>
       </c>
@@ -34770,7 +34771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2460194</v>
       </c>
@@ -34898,7 +34899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2476786</v>
       </c>
@@ -35026,7 +35027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2473190</v>
       </c>
@@ -35154,7 +35155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2471245</v>
       </c>
@@ -35282,7 +35283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2459587</v>
       </c>
@@ -35410,7 +35411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2463984</v>
       </c>
@@ -35538,7 +35539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2475007</v>
       </c>
@@ -35666,7 +35667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2470058</v>
       </c>
@@ -35794,7 +35795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2448032</v>
       </c>
@@ -35922,7 +35923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2468204</v>
       </c>
@@ -36050,7 +36051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2472296</v>
       </c>
@@ -36178,7 +36179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2472834</v>
       </c>
@@ -36306,7 +36307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2459147</v>
       </c>
@@ -36434,7 +36435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2461567</v>
       </c>
@@ -36562,7 +36563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2462740</v>
       </c>
@@ -36690,7 +36691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2486018</v>
       </c>
@@ -36818,7 +36819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2488610</v>
       </c>
@@ -36946,7 +36947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2473892</v>
       </c>
@@ -37074,7 +37075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2459974</v>
       </c>
@@ -37202,7 +37203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2471982</v>
       </c>
@@ -37330,7 +37331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2384049</v>
       </c>
@@ -37458,7 +37459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2407419</v>
       </c>
@@ -37586,7 +37587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2467819</v>
       </c>
@@ -37714,7 +37715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2469670</v>
       </c>
@@ -37842,7 +37843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2447571</v>
       </c>
@@ -37970,7 +37971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2472458</v>
       </c>
@@ -38098,7 +38099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2488322</v>
       </c>
@@ -38226,7 +38227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2470394</v>
       </c>
@@ -38354,7 +38355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2477562</v>
       </c>
@@ -38482,7 +38483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2575386</v>
       </c>
@@ -38610,7 +38611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2460275</v>
       </c>
@@ -38738,7 +38739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2479981</v>
       </c>
@@ -38866,7 +38867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2459364</v>
       </c>
@@ -38994,7 +38995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2459206</v>
       </c>
@@ -39122,7 +39123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2477415</v>
       </c>
@@ -39250,7 +39251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2383071</v>
       </c>
@@ -39378,7 +39379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2367347</v>
       </c>
@@ -39506,7 +39507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2370070</v>
       </c>
@@ -39634,7 +39635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2447854</v>
       </c>
@@ -39762,7 +39763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2471517</v>
       </c>
@@ -39890,7 +39891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2460178</v>
       </c>
@@ -40018,7 +40019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2449284</v>
       </c>
@@ -40146,7 +40147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2471197</v>
       </c>
@@ -40274,7 +40275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2473919</v>
       </c>
@@ -40402,7 +40403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2463987</v>
       </c>
@@ -40530,7 +40531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2470724</v>
       </c>
@@ -40658,7 +40659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2482072</v>
       </c>
@@ -40786,7 +40787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2468534</v>
       </c>
@@ -40914,7 +40915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2483548</v>
       </c>
@@ -41042,7 +41043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2422069</v>
       </c>
@@ -41170,7 +41171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2470423</v>
       </c>
@@ -41298,7 +41299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2461409</v>
       </c>
@@ -41426,7 +41427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2460979</v>
       </c>
@@ -41554,7 +41555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2463162</v>
       </c>
@@ -41682,7 +41683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2478675</v>
       </c>
@@ -41810,7 +41811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2486689</v>
       </c>
@@ -41938,7 +41939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2369362</v>
       </c>
@@ -42066,7 +42067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2482159</v>
       </c>
@@ -42194,7 +42195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2369932</v>
       </c>
@@ -42322,7 +42323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2397400</v>
       </c>
@@ -42450,7 +42451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2469868</v>
       </c>
@@ -42578,7 +42579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2397335</v>
       </c>
@@ -42706,7 +42707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2471046</v>
       </c>
@@ -42834,7 +42835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2448788</v>
       </c>
@@ -42962,7 +42963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2604047</v>
       </c>
@@ -43090,7 +43091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2461897</v>
       </c>
@@ -43218,7 +43219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2469215</v>
       </c>
@@ -43346,7 +43347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2366013</v>
       </c>
@@ -43474,7 +43475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2423048</v>
       </c>
@@ -43602,7 +43603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2474652</v>
       </c>
@@ -43730,7 +43731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2363900</v>
       </c>
@@ -43858,7 +43859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2460816</v>
       </c>
@@ -43986,7 +43987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2383406</v>
       </c>
@@ -44114,7 +44115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2465376</v>
       </c>
@@ -44242,7 +44243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2480713</v>
       </c>
@@ -44370,7 +44371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2468164</v>
       </c>
@@ -44498,7 +44499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2468759</v>
       </c>
@@ -44626,7 +44627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2461288</v>
       </c>
@@ -44754,7 +44755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2474444</v>
       </c>
@@ -44882,7 +44883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2375249</v>
       </c>
@@ -45010,7 +45011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2475836</v>
       </c>
@@ -45138,7 +45139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2474960</v>
       </c>
@@ -45266,7 +45267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2463394</v>
       </c>
@@ -45394,7 +45395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2460222</v>
       </c>
@@ -45522,7 +45523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2466637</v>
       </c>
@@ -45650,7 +45651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2480817</v>
       </c>
@@ -45778,7 +45779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2467558</v>
       </c>
@@ -45906,7 +45907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2447323</v>
       </c>
@@ -46034,7 +46035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2448578</v>
       </c>
@@ -46162,7 +46163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2380228</v>
       </c>
@@ -46290,7 +46291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2462258</v>
       </c>
@@ -46418,7 +46419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2419913</v>
       </c>
@@ -46546,7 +46547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2462052</v>
       </c>
@@ -46674,7 +46675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2467768</v>
       </c>
@@ -46802,7 +46803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2466089</v>
       </c>
@@ -46930,7 +46931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2484562</v>
       </c>
@@ -47058,7 +47059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2395330</v>
       </c>
@@ -47186,7 +47187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2360479</v>
       </c>
@@ -47314,7 +47315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2465220</v>
       </c>
@@ -47442,7 +47443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2471988</v>
       </c>
@@ -47570,7 +47571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2463439</v>
       </c>
@@ -47698,7 +47699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2470025</v>
       </c>
@@ -47826,7 +47827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2460367</v>
       </c>
@@ -47954,7 +47955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2467283</v>
       </c>
@@ -48082,7 +48083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2462249</v>
       </c>
@@ -48210,7 +48211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2487380</v>
       </c>
@@ -48338,7 +48339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2569490</v>
       </c>
@@ -48466,7 +48467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2472842</v>
       </c>
@@ -48594,7 +48595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2460095</v>
       </c>
@@ -48722,7 +48723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2404288</v>
       </c>
@@ -48850,7 +48851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2489791</v>
       </c>
@@ -48978,7 +48979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2445750</v>
       </c>
@@ -49106,7 +49107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2365639</v>
       </c>
@@ -49234,7 +49235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2482941</v>
       </c>
@@ -49362,7 +49363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2473029</v>
       </c>
@@ -49490,7 +49491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2369863</v>
       </c>
@@ -49618,7 +49619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2462744</v>
       </c>
@@ -49746,7 +49747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2486181</v>
       </c>
@@ -49874,7 +49875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2488564</v>
       </c>
@@ -50002,7 +50003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2363416</v>
       </c>
@@ -50130,7 +50131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2460236</v>
       </c>
@@ -50258,7 +50259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2460467</v>
       </c>
@@ -50386,7 +50387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2467025</v>
       </c>
@@ -50514,7 +50515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2469186</v>
       </c>
@@ -50642,7 +50643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2478235</v>
       </c>
@@ -50770,7 +50771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2384110</v>
       </c>
@@ -50898,7 +50899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2441576</v>
       </c>
@@ -51026,7 +51027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2470614</v>
       </c>
@@ -51154,7 +51155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2446965</v>
       </c>
@@ -51282,7 +51283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2471349</v>
       </c>
@@ -51410,7 +51411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2397371</v>
       </c>
@@ -51538,7 +51539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2461348</v>
       </c>
@@ -51666,7 +51667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2446469</v>
       </c>
@@ -51794,7 +51795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2471125</v>
       </c>
@@ -51922,7 +51923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2469091</v>
       </c>
@@ -52050,7 +52051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2470786</v>
       </c>
@@ -52178,7 +52179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2459209</v>
       </c>
@@ -52306,7 +52307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2448525</v>
       </c>
@@ -52434,7 +52435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2601972</v>
       </c>
@@ -52562,7 +52563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2461221</v>
       </c>
@@ -52690,7 +52691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2363458</v>
       </c>
@@ -52818,7 +52819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2458180</v>
       </c>
@@ -52946,7 +52947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2466786</v>
       </c>
@@ -53074,7 +53075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2470035</v>
       </c>
@@ -53202,7 +53203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A151" s="25">
         <v>2370610</v>
       </c>
@@ -53331,7 +53332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2459737</v>
       </c>
@@ -53459,7 +53460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2447003</v>
       </c>
@@ -53587,7 +53588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2449280</v>
       </c>
@@ -53715,7 +53716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2471383</v>
       </c>
@@ -53843,7 +53844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2466479</v>
       </c>
@@ -53971,7 +53972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2473980</v>
       </c>
@@ -54099,7 +54100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2466477</v>
       </c>
@@ -54227,7 +54228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2462671</v>
       </c>
@@ -54355,7 +54356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2489284</v>
       </c>
@@ -54483,7 +54484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2477126</v>
       </c>
@@ -54611,7 +54612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2473590</v>
       </c>
@@ -54739,7 +54740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2448095</v>
       </c>
@@ -54867,7 +54868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2468230</v>
       </c>
@@ -54995,7 +54996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2391565</v>
       </c>
@@ -55123,7 +55124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2474484</v>
       </c>
@@ -55251,7 +55252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2389243</v>
       </c>
@@ -55379,7 +55380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2472539</v>
       </c>
@@ -55507,7 +55508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2441251</v>
       </c>
@@ -55635,7 +55636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2471844</v>
       </c>
@@ -55763,7 +55764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2477408</v>
       </c>
@@ -55891,7 +55892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2448118</v>
       </c>
@@ -56019,7 +56020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2474447</v>
       </c>
@@ -56147,7 +56148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2468369</v>
       </c>
@@ -56275,7 +56276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2470138</v>
       </c>
@@ -56403,7 +56404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2457637</v>
       </c>
@@ -56531,7 +56532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2461833</v>
       </c>
@@ -56659,7 +56660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2472752</v>
       </c>
@@ -56787,7 +56788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2473489</v>
       </c>
@@ -56915,7 +56916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2446346</v>
       </c>
@@ -57043,7 +57044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2473484</v>
       </c>
@@ -57171,7 +57172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2446057</v>
       </c>
@@ -57299,7 +57300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2466569</v>
       </c>
@@ -57427,7 +57428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2461323</v>
       </c>
@@ -57555,7 +57556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2448530</v>
       </c>
@@ -57683,7 +57684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2389893</v>
       </c>
@@ -57811,7 +57812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2465549</v>
       </c>
@@ -57939,7 +57940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2478047</v>
       </c>
@@ -58067,7 +58068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2446915</v>
       </c>
@@ -58195,7 +58196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2476102</v>
       </c>
@@ -58323,7 +58324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2472033</v>
       </c>
@@ -58451,7 +58452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2481539</v>
       </c>
@@ -58579,7 +58580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2479407</v>
       </c>
@@ -58707,7 +58708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2464769</v>
       </c>
@@ -58835,7 +58836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2471344</v>
       </c>
@@ -58963,7 +58964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2381943</v>
       </c>
@@ -59091,7 +59092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2471085</v>
       </c>
@@ -59219,7 +59220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2460930</v>
       </c>
@@ -59347,7 +59348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2369630</v>
       </c>
@@ -59475,7 +59476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2464574</v>
       </c>
@@ -59603,7 +59604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2470406</v>
       </c>
@@ -59731,7 +59732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2471509</v>
       </c>
@@ -59859,7 +59860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2445567</v>
       </c>
@@ -59987,7 +59988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2460825</v>
       </c>
@@ -60115,7 +60116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2448317</v>
       </c>
@@ -60243,7 +60244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2445979</v>
       </c>
@@ -60371,7 +60372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2387856</v>
       </c>
@@ -60499,7 +60500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2442433</v>
       </c>
@@ -60627,7 +60628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2378940</v>
       </c>
@@ -60755,7 +60756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2488077</v>
       </c>
@@ -60883,7 +60884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A211" s="25">
         <v>2583588</v>
       </c>
@@ -61012,7 +61013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2391946</v>
       </c>
@@ -61140,7 +61141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2457955</v>
       </c>
@@ -61268,7 +61269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2470432</v>
       </c>
@@ -61396,7 +61397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2368055</v>
       </c>
@@ -61524,7 +61525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2460514</v>
       </c>
@@ -61652,7 +61653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2461100</v>
       </c>
@@ -61780,7 +61781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2461838</v>
       </c>
@@ -61908,7 +61909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2483846</v>
       </c>
@@ -62036,7 +62037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2468953</v>
       </c>
@@ -62164,7 +62165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2449040</v>
       </c>
@@ -62292,7 +62293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2486240</v>
       </c>
@@ -62420,7 +62421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2556433</v>
       </c>
@@ -62548,7 +62549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2369028</v>
       </c>
@@ -62676,7 +62677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2485380</v>
       </c>
@@ -62804,7 +62805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2473616</v>
       </c>
@@ -62932,7 +62933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2463436</v>
       </c>
@@ -63060,7 +63061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2466812</v>
       </c>
@@ -63188,8 +63189,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="1:43" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="230" spans="1:43" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C230" s="26" t="s">
         <v>18</v>
       </c>
@@ -63314,7 +63315,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="231" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C231" s="29" t="s">
         <v>34</v>
       </c>
@@ -63439,7 +63440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:43" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:43" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C232" s="32" t="s">
         <v>7</v>
       </c>
@@ -63604,7 +63605,7 @@
         <v>0.25110132158590309</v>
       </c>
     </row>
-    <row r="233" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C233" s="36" t="s">
         <v>4</v>
       </c>
@@ -63769,7 +63770,7 @@
         <v>0.44493392070484583</v>
       </c>
     </row>
-    <row r="234" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C234" s="36" t="s">
         <v>5</v>
       </c>
@@ -63934,7 +63935,7 @@
         <v>0.13215859030837004</v>
       </c>
     </row>
-    <row r="235" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C235" s="38" t="s">
         <v>6</v>
       </c>
@@ -64099,7 +64100,7 @@
         <v>0.17180616740088106</v>
       </c>
     </row>
-    <row r="236" spans="1:43" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="236" spans="1:43" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64113,13 +64114,13 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="3" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>38</v>
       </c>
@@ -64139,7 +64140,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>9</v>
       </c>
@@ -64161,7 +64162,7 @@
         <v>0.30939226519337015</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>15</v>
       </c>
@@ -64179,7 +64180,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>17</v>
       </c>
@@ -64197,7 +64198,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>16</v>
       </c>
@@ -64215,7 +64216,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
         <v>7</v>
       </c>
@@ -64233,7 +64234,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
         <v>4</v>
       </c>
@@ -64251,7 +64252,7 @@
         <v>0.17647058823529413</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
         <v>5</v>
       </c>
@@ -64269,7 +64270,7 @@
         <v>0.26315789473684209</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="64" t="s">
         <v>6</v>
       </c>
@@ -64287,7 +64288,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
         <v>11</v>
       </c>
@@ -64305,7 +64306,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="s">
         <v>10</v>
       </c>
@@ -64323,7 +64324,7 @@
         <v>0.21428571428571427</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
         <v>3</v>
       </c>
@@ -64341,7 +64342,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>14</v>
       </c>
@@ -64359,7 +64360,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
         <v>13</v>
       </c>
@@ -64377,7 +64378,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="67" t="s">
         <v>12</v>
       </c>
@@ -64395,7 +64396,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64409,9 +64410,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -64419,7 +64420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -64427,7 +64428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -64435,7 +64436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -64443,7 +64444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -64451,7 +64452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -64459,7 +64460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -64467,7 +64468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -64475,7 +64476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -64483,7 +64484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -64491,7 +64492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -64499,7 +64500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -64507,7 +64508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -64515,7 +64516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -64523,7 +64524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -64531,7 +64532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -64539,7 +64540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -64547,7 +64548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -64555,7 +64556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -64563,7 +64564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -64571,7 +64572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -64579,7 +64580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -64587,7 +64588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -64595,7 +64596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -64603,7 +64604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -64611,7 +64612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -64619,7 +64620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -64627,7 +64628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -64635,7 +64636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -64643,7 +64644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -64651,7 +64652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -64659,7 +64660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -64667,7 +64668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -64675,7 +64676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -64683,7 +64684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -64691,7 +64692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -64699,7 +64700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -64707,7 +64708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -64715,7 +64716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -64723,7 +64724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -64731,7 +64732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
